--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.920120.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.920120.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89B014CF-7765-4B0F-9D79-BEC77749EC88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCCFF9BB-7184-480E-A08D-20541C7943D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T074113.825" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T063132.449" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.920120.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.920120.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCCFF9BB-7184-480E-A08D-20541C7943D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D658B86-3D57-4CDA-A98E-297B60D581D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T063132.449" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T063305.314" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="80">
   <si>
     <t>Do Ty</t>
   </si>
@@ -230,6 +230,24 @@
   </si>
   <si>
     <t>BUNGAN LOAN PTKAE</t>
+  </si>
+  <si>
+    <t>CREDIT INTEREST</t>
+  </si>
+  <si>
+    <t>OD INTEREST CHARGE</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>Journal Entry</t>
+  </si>
+  <si>
+    <t>CADANGAN INTEREST LOAN</t>
+  </si>
+  <si>
+    <t>RPA2</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1084,7 +1102,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ10"/>
+  <dimension ref="A1:AZ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1826,65 +1844,1038 @@
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>24001276</v>
+      </c>
+      <c r="D7">
+        <v>1201</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45351</v>
+      </c>
       <c r="F7" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="2">
-        <v>4859.3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>4859.5</v>
+      <c r="G7">
+        <v>-7.94</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>-0.2</v>
-      </c>
-      <c r="M7" s="2">
-        <v>-3166.51</v>
-      </c>
-      <c r="N7" s="2">
-        <v>-3166.51</v>
+        <v>-7.94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" t="s">
+        <v>67</v>
+      </c>
+      <c r="T7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V7" t="s">
+        <v>60</v>
+      </c>
+      <c r="W7" t="s">
+        <v>61</v>
+      </c>
+      <c r="X7">
+        <v>2106727</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP7">
+        <v>1201</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY7">
+        <v>920120</v>
+      </c>
+      <c r="AZ7">
+        <v>1201.92012</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>24001283</v>
+      </c>
+      <c r="D8">
+        <v>1201</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45351</v>
+      </c>
       <c r="F8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4859.3</v>
-      </c>
-      <c r="H8" s="2">
-        <v>4859.3</v>
-      </c>
-      <c r="M8" s="2">
-        <v>-3166.51</v>
-      </c>
-      <c r="N8" s="2">
-        <v>-3166.51</v>
+        <v>54</v>
+      </c>
+      <c r="G8">
+        <v>-0.41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8">
+        <v>-0.41</v>
+      </c>
+      <c r="O8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" t="s">
+        <v>67</v>
+      </c>
+      <c r="T8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8" t="s">
+        <v>60</v>
+      </c>
+      <c r="W8" t="s">
+        <v>61</v>
+      </c>
+      <c r="X8">
+        <v>2107123</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA8">
+        <v>2</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP8">
+        <v>1201</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY8">
+        <v>920120</v>
+      </c>
+      <c r="AZ8">
+        <v>1201.92012</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <v>24001299</v>
+      </c>
+      <c r="D9">
+        <v>1201</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45351</v>
+      </c>
       <c r="F9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="2">
-        <v>4859.3</v>
-      </c>
-      <c r="H9" s="2">
-        <v>4859.5</v>
-      </c>
-      <c r="K9">
-        <v>-0.2</v>
-      </c>
-      <c r="M9" s="2">
-        <v>-3166.51</v>
+        <v>71</v>
+      </c>
+      <c r="G9">
+        <v>23.81</v>
+      </c>
+      <c r="H9">
+        <v>23.81</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="2">
+        <v>373194.46</v>
       </c>
       <c r="N9" s="2">
-        <v>-3166.51</v>
+        <v>373194.46</v>
+      </c>
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9">
+        <v>15673</v>
+      </c>
+      <c r="T9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X9">
+        <v>2107125</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9">
+        <v>3</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP9">
+        <v>1201</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY9">
+        <v>920120</v>
+      </c>
+      <c r="AZ9">
+        <v>1201.92012</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>24001299</v>
+      </c>
+      <c r="D10">
+        <v>1201</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45351</v>
+      </c>
       <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10">
+        <v>-23.81</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10">
+        <v>-23.81</v>
+      </c>
+      <c r="M10" s="2">
+        <v>-373194.46</v>
+      </c>
+      <c r="N10" s="2">
+        <v>-373194.46</v>
+      </c>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10">
+        <v>15673</v>
+      </c>
+      <c r="T10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" t="s">
+        <v>60</v>
+      </c>
+      <c r="W10" t="s">
+        <v>61</v>
+      </c>
+      <c r="X10">
+        <v>2107125</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP10">
+        <v>1201</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY10">
+        <v>920120</v>
+      </c>
+      <c r="AZ10">
+        <v>1201.92012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11">
+        <v>24001300</v>
+      </c>
+      <c r="D11">
+        <v>1201</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11">
+        <v>-17.850000000000001</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11">
+        <v>-17.850000000000001</v>
+      </c>
+      <c r="M11" s="2">
+        <v>-279759.46999999997</v>
+      </c>
+      <c r="N11" s="2">
+        <v>-279759.46999999997</v>
+      </c>
+      <c r="O11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11">
+        <v>15673</v>
+      </c>
+      <c r="T11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W11" t="s">
+        <v>61</v>
+      </c>
+      <c r="X11">
+        <v>2107131</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP11">
+        <v>1201</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY11">
+        <v>920120</v>
+      </c>
+      <c r="AZ11">
+        <v>1201.92012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>24001324</v>
+      </c>
+      <c r="D12">
+        <v>1201</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12">
+        <v>23.62</v>
+      </c>
+      <c r="H12">
+        <v>23.62</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="2">
+        <v>373194.46</v>
+      </c>
+      <c r="N12" s="2">
+        <v>373194.46</v>
+      </c>
+      <c r="O12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12">
+        <v>15803</v>
+      </c>
+      <c r="T12" t="s">
+        <v>58</v>
+      </c>
+      <c r="U12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W12" t="s">
+        <v>61</v>
+      </c>
+      <c r="X12">
+        <v>2107257</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP12">
+        <v>1201</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY12">
+        <v>920120</v>
+      </c>
+      <c r="AZ12">
+        <v>1201.92012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>24001326</v>
+      </c>
+      <c r="D13">
+        <v>1201</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13">
+        <v>-8.89</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13">
+        <v>-8.89</v>
+      </c>
+      <c r="M13" s="2">
+        <v>-139301.4</v>
+      </c>
+      <c r="N13" s="2">
+        <v>-139301.4</v>
+      </c>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13">
+        <v>15673</v>
+      </c>
+      <c r="T13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U13" t="s">
+        <v>59</v>
+      </c>
+      <c r="V13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W13" t="s">
+        <v>61</v>
+      </c>
+      <c r="X13">
+        <v>2107259</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP13">
+        <v>1201</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY13">
+        <v>920120</v>
+      </c>
+      <c r="AZ13">
+        <v>1201.92012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
         <v>73</v>
+      </c>
+      <c r="C14">
+        <v>4687260</v>
+      </c>
+      <c r="D14">
+        <v>1201</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="2">
+        <v>21000</v>
+      </c>
+      <c r="H14" s="2">
+        <v>21000</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" t="s">
+        <v>67</v>
+      </c>
+      <c r="T14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U14" t="s">
+        <v>59</v>
+      </c>
+      <c r="V14" t="s">
+        <v>60</v>
+      </c>
+      <c r="W14" t="s">
+        <v>61</v>
+      </c>
+      <c r="X14">
+        <v>2105812</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP14">
+        <v>1201</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY14">
+        <v>920120</v>
+      </c>
+      <c r="AZ14">
+        <v>1201.92012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="2">
+        <v>25847.83</v>
+      </c>
+      <c r="H15" s="2">
+        <v>25906.93</v>
+      </c>
+      <c r="K15">
+        <v>-59.1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>746388.92</v>
+      </c>
+      <c r="M15" s="2">
+        <v>-795421.84</v>
+      </c>
+      <c r="N15" s="2">
+        <v>-49032.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="2">
+        <v>25847.83</v>
+      </c>
+      <c r="H16" s="2">
+        <v>25847.83</v>
+      </c>
+      <c r="M16" s="2">
+        <v>-49032.92</v>
+      </c>
+      <c r="N16" s="2">
+        <v>-49032.92</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="2">
+        <v>25847.83</v>
+      </c>
+      <c r="H17" s="2">
+        <v>25906.93</v>
+      </c>
+      <c r="K17">
+        <v>-59.1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>746388.92</v>
+      </c>
+      <c r="M17" s="2">
+        <v>-795421.84</v>
+      </c>
+      <c r="N17" s="2">
+        <v>-49032.92</v>
+      </c>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
